--- a/medicine/Enfance/Paul_Rousseau_(auteur)/Paul_Rousseau_(auteur).xlsx
+++ b/medicine/Enfance/Paul_Rousseau_(auteur)/Paul_Rousseau_(auteur).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Rousseau est un poète et romancier québécois, surtout actif en littérature jeunesse, né le 30 mai 1956 à Grand-Mère[1] et mort le 24 novembre 2021[2] à Trois-Rivières[3]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Rousseau est un poète et romancier québécois, surtout actif en littérature jeunesse, né le 30 mai 1956 à Grand-Mère et mort le 24 novembre 2021 à Trois-Rivières. 
 Le film Ailleurs (2017) est une adaptation de son roman Haine-Moi!. 
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Rousseau a travaillé dans le secteur de l’information pendant de nombreuses années, principalement à Radio-Canada[2] ce qui l’a amené à sillonner le Québec et le Canada. Il a mené en parallèle une carrière d’écrivain dans les domaines du roman, de la poésie et surtout de la littérature jeunesse. Il remporte le prix Octave Crémazie en 1990 avec le recueil Micro-Textes et le jury du prix Robert Cliche lui décerne une mention spéciale pour la version manuscrite de Yuppie Blues en 1993[2]. Son roman Haine-Moi! a été adapté au cinéma en 2017 sous le titre Ailleurs, film réalisé par Samuel Matteau[4],[5].  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Rousseau a travaillé dans le secteur de l’information pendant de nombreuses années, principalement à Radio-Canada ce qui l’a amené à sillonner le Québec et le Canada. Il a mené en parallèle une carrière d’écrivain dans les domaines du roman, de la poésie et surtout de la littérature jeunesse. Il remporte le prix Octave Crémazie en 1990 avec le recueil Micro-Textes et le jury du prix Robert Cliche lui décerne une mention spéciale pour la version manuscrite de Yuppie Blues en 1993. Son roman Haine-Moi! a été adapté au cinéma en 2017 sous le titre Ailleurs, film réalisé par Samuel Matteau,.  
 </t>
         </is>
       </c>
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Littérature jeunesse
-Marie Maillot, Montréal : Éditions Alexandre Stanké, 2001
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Marie Maillot, Montréal : Éditions Alexandre Stanké, 2001
 Une panthère dans la litière, Montréal : La Courte Échelle, 2002
 Docteur Soccer, Montréal : La Courte échelle, 2002
 Le Balafré du Cap du Diable, Montréal : Éditions Michel Quintin, 2003
@@ -558,15 +577,7 @@
 La main vivante, Montréal : La Courte échelle,  2006
 Un génie dans les tuyaux, Montréal : La Courte échelle, 2009
 Un esquimau dans le frigo, Montréal : La Courte échelle, 2009
-Un perce-oreille dans l'oreille, Ville-Marie : Éditions Z'ailées, 2014
-Roman
-Yuppie blues, Montréal : Éditions Québec/Amérique,  1994
-Haine-moi!, Outremont : Lanctôt, 1997
-Rut rural, Montréal :  Éditions Québec/Amérique , 2018
-Le Feu sur la peau, Montréal:  Éditions Québec/Amérique , 2019
-Poésie
-Micro-textes, Trois-Rivières : Écrits des Forges, 1990
-Copiés/collés, Laval : Trois, 2000</t>
+Un perce-oreille dans l'oreille, Ville-Marie : Éditions Z'ailées, 2014</t>
         </is>
       </c>
     </row>
@@ -591,12 +602,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Adaptations</t>
+          <t>Ouvrages parus</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ailleurs : Adaptation cinématographique de Haine-moi!, réalisé par Samuel Matteau. Production Groupe Vélocité 2017.</t>
+          <t>Roman</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Yuppie blues, Montréal : Éditions Québec/Amérique,  1994
+Haine-moi!, Outremont : Lanctôt, 1997
+Rut rural, Montréal :  Éditions Québec/Amérique , 2018
+Le Feu sur la peau, Montréal:  Éditions Québec/Amérique , 2019</t>
         </is>
       </c>
     </row>
@@ -621,10 +641,81 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Ouvrages parus</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Micro-textes, Trois-Rivières : Écrits des Forges, 1990
+Copiés/collés, Laval : Trois, 2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Paul_Rousseau_(auteur)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Rousseau_(auteur)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ailleurs : Adaptation cinématographique de Haine-moi!, réalisé par Samuel Matteau. Production Groupe Vélocité 2017.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Paul_Rousseau_(auteur)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Rousseau_(auteur)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Prix</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Prix Octave-Crémazie de poésie 1990 pour son recueil Micro-Texte.
 Mention spéciale du jury du Prix Robert-Cliche 1993 pour la première version de Yuppie Blues</t>
